--- a/supplementary_data/reference_proteins.xlsx
+++ b/supplementary_data/reference_proteins.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -625,14 +638,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,14 +665,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1126,153 +1131,147 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1806,1122 +1805,1122 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:D$1048576"/>
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="49.2222222222222" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.8888888888889" style="2" customWidth="1"/>
+    <col min="1" max="1" width="49.225" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.8916666666667" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" ht="14.25" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="1048477" spans="1:1">
-      <c r="A1048477" s="6"/>
+      <c r="A1048477" s="4"/>
     </row>
     <row r="1048478" spans="1:1">
-      <c r="A1048478" s="6"/>
+      <c r="A1048478" s="4"/>
     </row>
     <row r="1048479" spans="1:1">
-      <c r="A1048479" s="6"/>
+      <c r="A1048479" s="4"/>
     </row>
     <row r="1048480" spans="1:1">
-      <c r="A1048480" s="6"/>
+      <c r="A1048480" s="4"/>
     </row>
     <row r="1048481" spans="1:1">
-      <c r="A1048481" s="6"/>
+      <c r="A1048481" s="4"/>
     </row>
     <row r="1048482" spans="1:1">
-      <c r="A1048482" s="6"/>
+      <c r="A1048482" s="4"/>
     </row>
     <row r="1048483" spans="1:1">
-      <c r="A1048483" s="6"/>
+      <c r="A1048483" s="4"/>
     </row>
     <row r="1048484" spans="1:1">
-      <c r="A1048484" s="6"/>
+      <c r="A1048484" s="4"/>
     </row>
     <row r="1048485" spans="1:1">
-      <c r="A1048485" s="6"/>
+      <c r="A1048485" s="4"/>
     </row>
     <row r="1048486" spans="1:1">
-      <c r="A1048486" s="6"/>
+      <c r="A1048486" s="4"/>
     </row>
     <row r="1048487" spans="1:1">
-      <c r="A1048487" s="6"/>
+      <c r="A1048487" s="4"/>
     </row>
     <row r="1048488" spans="1:1">
-      <c r="A1048488" s="6"/>
+      <c r="A1048488" s="4"/>
     </row>
     <row r="1048489" spans="1:1">
-      <c r="A1048489" s="6"/>
+      <c r="A1048489" s="4"/>
     </row>
     <row r="1048490" spans="1:1">
-      <c r="A1048490" s="6"/>
+      <c r="A1048490" s="4"/>
     </row>
     <row r="1048491" spans="1:1">
-      <c r="A1048491" s="6"/>
+      <c r="A1048491" s="4"/>
     </row>
     <row r="1048492" spans="1:1">
-      <c r="A1048492" s="6"/>
+      <c r="A1048492" s="4"/>
     </row>
     <row r="1048493" spans="1:1">
-      <c r="A1048493" s="6"/>
+      <c r="A1048493" s="4"/>
     </row>
     <row r="1048494" spans="1:1">
-      <c r="A1048494" s="6"/>
+      <c r="A1048494" s="4"/>
     </row>
     <row r="1048495" spans="1:1">
-      <c r="A1048495" s="6"/>
+      <c r="A1048495" s="4"/>
     </row>
     <row r="1048496" spans="1:1">
-      <c r="A1048496" s="6"/>
+      <c r="A1048496" s="4"/>
     </row>
     <row r="1048497" spans="1:1">
-      <c r="A1048497" s="6"/>
+      <c r="A1048497" s="4"/>
     </row>
     <row r="1048498" spans="1:1">
-      <c r="A1048498" s="6"/>
+      <c r="A1048498" s="4"/>
     </row>
     <row r="1048499" spans="1:1">
-      <c r="A1048499" s="6"/>
+      <c r="A1048499" s="4"/>
     </row>
     <row r="1048500" spans="1:1">
-      <c r="A1048500" s="6"/>
+      <c r="A1048500" s="4"/>
     </row>
     <row r="1048501" spans="1:1">
-      <c r="A1048501" s="6"/>
+      <c r="A1048501" s="4"/>
     </row>
     <row r="1048502" spans="1:1">
-      <c r="A1048502" s="6"/>
+      <c r="A1048502" s="4"/>
     </row>
     <row r="1048503" spans="1:1">
-      <c r="A1048503" s="6"/>
+      <c r="A1048503" s="4"/>
     </row>
     <row r="1048504" spans="1:1">
-      <c r="A1048504" s="6"/>
+      <c r="A1048504" s="4"/>
     </row>
     <row r="1048505" spans="1:1">
-      <c r="A1048505" s="6"/>
+      <c r="A1048505" s="4"/>
     </row>
     <row r="1048506" spans="1:1">
-      <c r="A1048506" s="6"/>
+      <c r="A1048506" s="4"/>
     </row>
     <row r="1048507" spans="1:1">
-      <c r="A1048507" s="6"/>
+      <c r="A1048507" s="4"/>
     </row>
     <row r="1048508" spans="1:1">
-      <c r="A1048508" s="6"/>
+      <c r="A1048508" s="4"/>
     </row>
     <row r="1048509" spans="1:1">
-      <c r="A1048509" s="6"/>
+      <c r="A1048509" s="4"/>
     </row>
     <row r="1048510" spans="1:1">
-      <c r="A1048510" s="6"/>
+      <c r="A1048510" s="4"/>
     </row>
     <row r="1048511" spans="1:1">
-      <c r="A1048511" s="6"/>
+      <c r="A1048511" s="4"/>
     </row>
     <row r="1048512" spans="1:1">
-      <c r="A1048512" s="6"/>
+      <c r="A1048512" s="4"/>
     </row>
     <row r="1048513" spans="1:1">
-      <c r="A1048513" s="6"/>
+      <c r="A1048513" s="4"/>
     </row>
     <row r="1048514" spans="1:1">
-      <c r="A1048514" s="6"/>
+      <c r="A1048514" s="4"/>
     </row>
     <row r="1048515" spans="1:1">
-      <c r="A1048515" s="6"/>
+      <c r="A1048515" s="4"/>
     </row>
     <row r="1048516" spans="1:1">
-      <c r="A1048516" s="6"/>
+      <c r="A1048516" s="4"/>
     </row>
     <row r="1048517" spans="1:1">
-      <c r="A1048517" s="6"/>
+      <c r="A1048517" s="4"/>
     </row>
     <row r="1048518" spans="1:1">
-      <c r="A1048518" s="6"/>
+      <c r="A1048518" s="4"/>
     </row>
     <row r="1048519" spans="1:1">
-      <c r="A1048519" s="6"/>
+      <c r="A1048519" s="4"/>
     </row>
     <row r="1048520" spans="1:1">
-      <c r="A1048520" s="6"/>
+      <c r="A1048520" s="4"/>
     </row>
     <row r="1048521" spans="1:1">
-      <c r="A1048521" s="6"/>
+      <c r="A1048521" s="4"/>
     </row>
     <row r="1048522" spans="1:1">
-      <c r="A1048522" s="6"/>
+      <c r="A1048522" s="4"/>
     </row>
     <row r="1048523" spans="1:1">
-      <c r="A1048523" s="6"/>
+      <c r="A1048523" s="4"/>
     </row>
     <row r="1048524" spans="1:1">
-      <c r="A1048524" s="6"/>
+      <c r="A1048524" s="4"/>
     </row>
     <row r="1048525" spans="1:1">
-      <c r="A1048525" s="6"/>
+      <c r="A1048525" s="4"/>
     </row>
     <row r="1048526" spans="1:1">
-      <c r="A1048526" s="6"/>
+      <c r="A1048526" s="4"/>
     </row>
     <row r="1048527" spans="1:1">
-      <c r="A1048527" s="6"/>
+      <c r="A1048527" s="4"/>
     </row>
     <row r="1048528" spans="1:1">
-      <c r="A1048528" s="6"/>
+      <c r="A1048528" s="4"/>
     </row>
     <row r="1048529" spans="1:1">
-      <c r="A1048529" s="6"/>
+      <c r="A1048529" s="4"/>
     </row>
     <row r="1048530" spans="1:1">
-      <c r="A1048530" s="6"/>
+      <c r="A1048530" s="4"/>
     </row>
     <row r="1048531" spans="1:1">
-      <c r="A1048531" s="6"/>
+      <c r="A1048531" s="4"/>
     </row>
     <row r="1048532" spans="1:1">
-      <c r="A1048532" s="6"/>
+      <c r="A1048532" s="4"/>
     </row>
     <row r="1048533" spans="1:1">
-      <c r="A1048533" s="6"/>
+      <c r="A1048533" s="4"/>
     </row>
     <row r="1048534" spans="1:1">
-      <c r="A1048534" s="6"/>
+      <c r="A1048534" s="4"/>
     </row>
     <row r="1048535" spans="1:1">
-      <c r="A1048535" s="6"/>
+      <c r="A1048535" s="4"/>
     </row>
     <row r="1048536" spans="1:1">
-      <c r="A1048536" s="6"/>
+      <c r="A1048536" s="4"/>
     </row>
     <row r="1048537" spans="1:1">
-      <c r="A1048537" s="6"/>
+      <c r="A1048537" s="4"/>
     </row>
     <row r="1048538" spans="1:1">
-      <c r="A1048538" s="6"/>
+      <c r="A1048538" s="4"/>
     </row>
     <row r="1048539" spans="1:1">
-      <c r="A1048539" s="6"/>
+      <c r="A1048539" s="4"/>
     </row>
     <row r="1048540" spans="1:1">
-      <c r="A1048540" s="6"/>
+      <c r="A1048540" s="4"/>
     </row>
     <row r="1048541" spans="1:1">
-      <c r="A1048541" s="6"/>
+      <c r="A1048541" s="4"/>
     </row>
     <row r="1048542" spans="1:1">
-      <c r="A1048542" s="6"/>
+      <c r="A1048542" s="4"/>
     </row>
     <row r="1048543" spans="1:1">
-      <c r="A1048543" s="6"/>
+      <c r="A1048543" s="4"/>
     </row>
     <row r="1048544" spans="1:1">
-      <c r="A1048544" s="6"/>
+      <c r="A1048544" s="4"/>
     </row>
     <row r="1048545" spans="1:1">
-      <c r="A1048545" s="6"/>
+      <c r="A1048545" s="4"/>
     </row>
     <row r="1048546" spans="1:1">
-      <c r="A1048546" s="6"/>
+      <c r="A1048546" s="4"/>
     </row>
     <row r="1048547" spans="1:1">
-      <c r="A1048547" s="6"/>
+      <c r="A1048547" s="4"/>
     </row>
     <row r="1048548" spans="1:1">
-      <c r="A1048548" s="6"/>
+      <c r="A1048548" s="4"/>
     </row>
     <row r="1048549" spans="1:1">
-      <c r="A1048549" s="6"/>
+      <c r="A1048549" s="4"/>
     </row>
     <row r="1048550" spans="1:1">
-      <c r="A1048550" s="6"/>
+      <c r="A1048550" s="4"/>
     </row>
     <row r="1048551" spans="1:1">
-      <c r="A1048551" s="6"/>
+      <c r="A1048551" s="4"/>
     </row>
     <row r="1048552" spans="1:1">
-      <c r="A1048552" s="6"/>
+      <c r="A1048552" s="4"/>
     </row>
     <row r="1048553" spans="1:1">
-      <c r="A1048553" s="6"/>
+      <c r="A1048553" s="4"/>
     </row>
     <row r="1048554" spans="1:1">
-      <c r="A1048554" s="6"/>
+      <c r="A1048554" s="4"/>
     </row>
     <row r="1048555" spans="1:1">
-      <c r="A1048555" s="6"/>
+      <c r="A1048555" s="4"/>
     </row>
     <row r="1048556" spans="1:1">
-      <c r="A1048556" s="6"/>
+      <c r="A1048556" s="4"/>
     </row>
     <row r="1048557" spans="1:1">
-      <c r="A1048557" s="6"/>
+      <c r="A1048557" s="4"/>
     </row>
     <row r="1048558" spans="1:1">
-      <c r="A1048558" s="6"/>
+      <c r="A1048558" s="4"/>
     </row>
     <row r="1048559" spans="1:1">
-      <c r="A1048559" s="6"/>
+      <c r="A1048559" s="4"/>
     </row>
     <row r="1048560" spans="1:1">
-      <c r="A1048560" s="6"/>
+      <c r="A1048560" s="4"/>
     </row>
     <row r="1048561" spans="1:1">
-      <c r="A1048561" s="6"/>
+      <c r="A1048561" s="4"/>
     </row>
     <row r="1048562" spans="1:1">
-      <c r="A1048562" s="6"/>
+      <c r="A1048562" s="4"/>
     </row>
     <row r="1048563" spans="1:1">
-      <c r="A1048563" s="6"/>
+      <c r="A1048563" s="4"/>
     </row>
     <row r="1048564" spans="1:1">
-      <c r="A1048564" s="6"/>
+      <c r="A1048564" s="4"/>
     </row>
     <row r="1048565" spans="1:1">
-      <c r="A1048565" s="6"/>
+      <c r="A1048565" s="4"/>
     </row>
     <row r="1048566" spans="1:1">
-      <c r="A1048566" s="6"/>
+      <c r="A1048566" s="4"/>
     </row>
     <row r="1048567" spans="1:1">
-      <c r="A1048567" s="6"/>
+      <c r="A1048567" s="4"/>
     </row>
     <row r="1048568" spans="1:1">
-      <c r="A1048568" s="6"/>
+      <c r="A1048568" s="4"/>
     </row>
     <row r="1048569" spans="1:1">
-      <c r="A1048569" s="6"/>
+      <c r="A1048569" s="4"/>
     </row>
     <row r="1048570" spans="1:1">
-      <c r="A1048570" s="6"/>
+      <c r="A1048570" s="4"/>
     </row>
     <row r="1048571" spans="1:1">
-      <c r="A1048571" s="6"/>
+      <c r="A1048571" s="4"/>
     </row>
     <row r="1048572" spans="1:1">
-      <c r="A1048572" s="6"/>
+      <c r="A1048572" s="4"/>
     </row>
     <row r="1048573" spans="1:1">
-      <c r="A1048573" s="6"/>
+      <c r="A1048573" s="4"/>
     </row>
     <row r="1048574" spans="1:1">
-      <c r="A1048574" s="6"/>
+      <c r="A1048574" s="4"/>
     </row>
     <row r="1048575" spans="1:1">
-      <c r="A1048575" s="6"/>
+      <c r="A1048575" s="4"/>
     </row>
     <row r="1048576" spans="1:1">
-      <c r="A1048576" s="6"/>
+      <c r="A1048576" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
